--- a/psychopy/tests/testData/data.xlsx
+++ b/psychopy/tests/testData/data.xlsx
@@ -91,8 +91,9 @@
 </sst>
 </file>
 
-<file path=xl/style.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -120,17 +121,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -515,10 +515,10 @@
         <v>0.710916996002</v>
       </c>
       <c r="M2" t="n">
-        <v>0.685897</v>
+        <v>0.685896873474</v>
       </c>
       <c r="N2" t="n">
-        <v>0.735937</v>
+        <v>0.73593711853</v>
       </c>
       <c r="O2" t="n">
         <v>0.0250201225281</v>
@@ -529,10 +529,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -562,10 +562,10 @@
         <v>0.902688503265</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03579</v>
+        <v>1.0357940197</v>
       </c>
       <c r="N3" t="n">
-        <v>0.769583</v>
+        <v>0.769582986832</v>
       </c>
       <c r="O3" t="n">
         <v>0.133105516434</v>
@@ -576,10 +576,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -609,10 +609,10 @@
         <v>0.74442243576</v>
       </c>
       <c r="M4" t="n">
-        <v>0.736332</v>
+        <v>0.736331939697</v>
       </c>
       <c r="N4" t="n">
-        <v>0.752513</v>
+        <v>0.752512931824</v>
       </c>
       <c r="O4" t="n">
         <v>0.00809049606323</v>
@@ -623,10 +623,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -656,10 +656,10 @@
         <v>0.74411046505</v>
       </c>
       <c r="M5" t="n">
-        <v>0.735621</v>
+        <v>0.735620975494</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7526</v>
+        <v>0.752599954605</v>
       </c>
       <c r="O5" t="n">
         <v>0.00848948955536</v>
@@ -670,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -703,10 +703,10 @@
         <v>0.602207064629</v>
       </c>
       <c r="M6" t="n">
-        <v>0.56877</v>
+        <v>0.568769931793</v>
       </c>
       <c r="N6" t="n">
-        <v>0.635644</v>
+        <v>0.635644197464</v>
       </c>
       <c r="O6" t="n">
         <v>0.0334371328354</v>
@@ -717,10 +717,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -750,10 +750,10 @@
         <v>0.727305054665</v>
       </c>
       <c r="M7" t="n">
-        <v>0.70213</v>
+        <v>0.702130079269</v>
       </c>
       <c r="N7" t="n">
-        <v>0.75248</v>
+        <v>0.75248003006</v>
       </c>
       <c r="O7" t="n">
         <v>0.0251749753952</v>
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/psychopy/tests/testData/data.xlsx
+++ b/psychopy/tests/testData/data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-20" yWindow="420" windowWidth="21600" windowHeight="13320"/>
   </bookViews>
   <sheets>
-    <sheet name="rawData" r:id="rId1" sheetId="1"/>
+    <sheet name="rawData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>text</t>
   </si>
@@ -93,14 +94,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,16 +125,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -418,384 +422,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.710916996002</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.685896873474</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.73593711853</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0250201225281</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.71091699600199998</v>
+      </c>
+      <c r="M2">
+        <v>0.68589687347399997</v>
+      </c>
+      <c r="N2">
+        <v>0.73593711852999999</v>
+      </c>
+      <c r="O2">
+        <v>3.5383796611400002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.902688503265</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.70710678118699999</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.90268850326500005</v>
+      </c>
+      <c r="M3">
         <v>1.0357940197</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.769582986832</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.133105516434</v>
+      <c r="N3">
+        <v>0.76958298683199999</v>
+      </c>
+      <c r="O3">
+        <v>0.188239626567</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.70710678118699999</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>0.74442243576</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.736331939697</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.752512931824</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.00809049606323</v>
+      <c r="M4">
+        <v>0.73633193969699995</v>
+      </c>
+      <c r="N4">
+        <v>0.75251293182400003</v>
+      </c>
+      <c r="O4">
+        <v>1.14416892589E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>0.74411046505</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.735620975494</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.752599954605</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.00848948955536</v>
+      <c r="M5">
+        <v>0.73562097549399996</v>
+      </c>
+      <c r="N5">
+        <v>0.75259995460499995</v>
+      </c>
+      <c r="O5">
+        <v>1.20059512668E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.602207064629</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.568769931793</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.635644197464</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.0334371328354</v>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0.60220706462899998</v>
+      </c>
+      <c r="M6">
+        <v>0.56876993179299995</v>
+      </c>
+      <c r="N6">
+        <v>0.63564419746400003</v>
+      </c>
+      <c r="O6">
+        <v>4.7287246742699997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.727305054665</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.702130079269</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.75248003006</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.0251749753952</v>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.72730505466499995</v>
+      </c>
+      <c r="M7">
+        <v>0.70213007926899995</v>
+      </c>
+      <c r="N7">
+        <v>0.75248003005999997</v>
+      </c>
+      <c r="O7">
+        <v>3.56027916363E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>